--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2495340.525160309</v>
+        <v>-2497577.221577359</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378326.849234221</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16558712.03982301</v>
+        <v>16585510.89891386</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.41307671137059</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.94101498269113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>127.0044127072327</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>216.3273452660812</v>
       </c>
       <c r="X5" t="n">
-        <v>174.5986077078408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>233.4543067672734</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>65.51651982872603</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>25.71396007345139</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>369.798308131636</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185879</v>
+        <v>207.6951870029948</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>103.572877713736</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>62.74236544294377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>47.27820527287692</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>161.8175117958952</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463175</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,19 +3241,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689361</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>343.8326266600508</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>357.527665161256</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,19 +3478,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292587</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851113</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247882</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734097636</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.9570160514552</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870207</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247654</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.23670158702</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468.3004633897571</v>
+        <v>907.090798542223</v>
       </c>
       <c r="C2" t="n">
-        <v>99.3379464493454</v>
+        <v>538.1282816018113</v>
       </c>
       <c r="D2" t="n">
-        <v>99.3379464493454</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>99.3379464493454</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.50539369077</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1245.039635429691</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>854.9003034538789</v>
+        <v>1293.690638606345</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4507,19 +4507,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.546485980902</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>235.5914466506042</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>120.1212846776635</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4841,13 +4841,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2108.906329475425</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1735.440571214345</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
         <v>1171.725741678162</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
         <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>1841.189502980821</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,19 +5501,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
         <v>1797.533454227377</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488382</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5841,7 +5841,7 @@
         <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U22" t="n">
-        <v>800.6837097077201</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V22" t="n">
-        <v>545.9992215018333</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6081,7 +6081,7 @@
         <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6124,16 +6124,16 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E25" t="n">
         <v>398.9545963083209</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,28 +6291,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
         <v>1171.725741678162</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982977</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6552,13 +6552,13 @@
         <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
         <v>320.8847398504512</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,13 +6655,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
         <v>772.2886129010317</v>
@@ -6677,34 +6677,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,16 +6777,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
         <v>1171.725741678162</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2357.845236498671</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>1988.882719558259</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1630.617020951508</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1244.828768353264</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>833.8428635636564</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>486.5371800686555</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>178.1662213703548</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>364.2252761704873</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>806.4813411568369</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1508.085497200635</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2305.361850920526</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3100.906972024557</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3806.930033048752</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4371.829998304555</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4718.824586613258</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4643.758424636692</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4433.169749547296</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4179.55500687073</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3848.492119527159</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3495.723464257045</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3134.584408538604</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2744.445076562793</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.7752020406868</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>811.3221727595599</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>662.3877630983086</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>503.150308092853</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>356.615750119738</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>219.6890717239233</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>123.744198155611</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>137.052111613752</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>286.1217958158119</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>532.8869237222759</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>840.2070570022377</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1516.337331996789</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1795.877397215486</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2316.178018951233</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2611.287436266947</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>2621.917448364247</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>2482.011343448021</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>2287.096727371799</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>2058.991802991186</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1823.839694759443</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.602338031242</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>1361.750837825709</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>1153.990539060755</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.8041820989415</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>557.6880902110756</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>476.391541838781</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>397.298539296429</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>319.2286828385597</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>219.8734521984214</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>138.2755347864058</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3942981406486</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>393.0302736136042</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>708.1928898530778</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
-        <v>1047.210203848605</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1385.204884104497</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1686.530433338238</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1930.580769172265</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2036.864783372765</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1994.609770974631</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1863.509851930225</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1708.544527759772</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1488.235980013371</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.371582847525</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1081.774503850605</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>922.6050439926291</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>770.6325558891401</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074201</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972667</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345676</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>1622.42518767663</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903276</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.592772497321</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216194</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549427</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494872</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763722</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089903</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468579</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549554</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142069</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635549</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487876</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282343</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517389</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499226</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.32299686015</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719036</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036721</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>1622.425187676631</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.425187676631</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973187</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161917</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549405</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549485</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>341.43332057637</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089881</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468556</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313402</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216075</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487873</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430894</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477366</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490194</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499222</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901878</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860149</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032969</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719035</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123956</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829557</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604457</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122056</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.56440093796</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.9802687929765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O18" t="n">
-        <v>349.7653003338571</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,10 +9489,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O21" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>274.3657496970643</v>
+        <v>274.3657496970648</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>188.88569463024</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>349.7653003338568</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
-        <v>242.1789544068415</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10674,10 +10674,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>349.7653003338568</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>19.79750571619093</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-9.010731216870565e-13</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>19.79750571619297</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338569</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>19.79750571619365</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>257.2699649093124</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>285.3355548459872</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>278.981757781666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>44.28663650577312</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871784</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>122.1367776753012</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>189.3952778808842</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>171.3064480792179</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>7.280234771565489</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>124.4198406026821</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1464686.396117235</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1450707.559974104</v>
+        <v>1465338.849124223</v>
       </c>
     </row>
   </sheetData>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
+        <v>54505.51210371252</v>
+      </c>
+      <c r="J3" t="n">
+        <v>176423.2191925929</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.170374162029475e-10</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338372</v>
+      </c>
+      <c r="N3" t="n">
         <v>54505.51210371254</v>
-      </c>
-      <c r="J3" t="n">
-        <v>176423.219192593</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>129642.3148389448</v>
-      </c>
-      <c r="N3" t="n">
-        <v>216643.6227495947</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125767.3623801285</v>
+        <v>125767.3623801284</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26424,7 +26424,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26436,28 +26436,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51722.3327936228</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="L4" t="n">
         <v>51722.33279362281</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>51722.33279362281</v>
       </c>
-      <c r="K4" t="n">
-        <v>51722.33279362281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51722.3327936228</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54709.97259871806</v>
-      </c>
       <c r="N4" t="n">
-        <v>30134.53761950701</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950707</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>96456.5024909879</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>100332.6710141021</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-798594.3196580823</v>
+        <v>-798807.731647961</v>
       </c>
       <c r="C6" t="n">
         <v>-257349.8553852357</v>
@@ -26528,16 +26528,16 @@
         <v>-257349.8553852357</v>
       </c>
       <c r="E6" t="n">
-        <v>-646450.9079779151</v>
+        <v>-646548.3671038873</v>
       </c>
       <c r="F6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="G6" t="n">
-        <v>-121290.871501019</v>
+        <v>-121388.3306269911</v>
       </c>
       <c r="H6" t="n">
-        <v>-121290.8715010189</v>
+        <v>-121388.3306269912</v>
       </c>
       <c r="I6" t="n">
         <v>-203942.9507173607</v>
@@ -26546,22 +26546,22 @@
         <v>-325860.6578062411</v>
       </c>
       <c r="K6" t="n">
-        <v>-149437.4386136482</v>
+        <v>-149437.4386136484</v>
       </c>
       <c r="L6" t="n">
         <v>-149437.4386136482</v>
       </c>
       <c r="M6" t="n">
-        <v>-280808.7899286507</v>
+        <v>-284238.4538474854</v>
       </c>
       <c r="N6" t="n">
-        <v>-347110.8313832038</v>
+        <v>-203942.9507173608</v>
       </c>
       <c r="O6" t="n">
-        <v>-130467.2086336092</v>
+        <v>-149437.4386136482</v>
       </c>
       <c r="P6" t="n">
-        <v>-130467.2086336092</v>
+        <v>-149437.4386136482</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859253</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,25 +26759,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859251</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>259.3942951391984</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>121.5404908957242</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>85.14112624278616</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>207.8510068180549</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>132.9136234513319</v>
       </c>
       <c r="X5" t="n">
-        <v>195.1324929706282</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>52.82756747470432</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0681335233688</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>323.5270086439616</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.43963052441762</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>46.77321189969339</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>12.20343551721305</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3810118616816</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>44.8670377284467</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003813</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623196</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574997</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095027</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099062</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746416</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781692</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806955</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752261</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138798</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233477</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837927</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987488</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238318</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898503</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742022</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297391</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098821</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316434</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071222</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112299</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,13 +35495,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O18" t="n">
-        <v>632.1290025749652</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36209,10 +36209,10 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O21" t="n">
-        <v>632.1290025749649</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36449,10 +36449,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L25" t="n">
         <v>318.3460770095692</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>481.459164628589</v>
+        <v>481.4591646285895</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>471.2493968713482</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,13 +36999,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
@@ -37154,13 +37154,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>632.1290025749649</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37169,7 +37169,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>446.7232979660097</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554007</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923324</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>558.7186215464179</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248959</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509648</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636244</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597719</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013294</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004594</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859627</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127273</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>558.7186215464197</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>558.7186215464202</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
